--- a/NewCDSDataFromClient/TEST_2021_2022.xlsx
+++ b/NewCDSDataFromClient/TEST_2021_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\irpa_main\rhit_IRPA_2023\NewCDSDataFromClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\NewCDSDataFromClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8BD911-282E-43CD-934A-8B58E58231D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B03F1-22EC-4742-A3BA-A5E3737C239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>What is rose-hulman ranking</t>
+    <t>For admission decisions at Rose-Hulman Institute of Technology, various factors are taken into account. The rigor of the applicant's secondary school record, their class rank, and academic GPA are all very important. While standardized test scores are not as crucial, they are still considered. Additionally, the application essay, recommendation letters, and interviews are all factors that are taken into account. Extracurricular activities, talent, and personal qualities are also considered. The applicant's first-generation status, alumni/ae relation, and geographical residence are also taken into account. However, state residency, religious affiliation, and commitment are not considered. Racial/ethnic status is considered. Volunteer work, work experience, and the level of the applicant's interest are also taken into account in the admission decision process.</t>
   </si>
   <si>
-    <t>Rose-hulman is ranked number one</t>
+    <t>What are the admission criterias.</t>
   </si>
 </sst>
 </file>
@@ -72,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,32 +360,33 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>